--- a/Results/Scores_RailNL.xlsx
+++ b/Results/Scores_RailNL.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18913"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{509C4D7C-19C7-4B39-BFB0-DC542559E546}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +400,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -535,11 +536,11 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>9899.9950800000006</v>
       </c>
       <c r="C5" s="2">
-        <v>8882.0023183050798</v>
+        <v>8882.0023983050796</v>
       </c>
       <c r="D5" s="2">
         <v>9502.8516828571392</v>
@@ -554,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>7</v>
@@ -568,16 +569,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>9359.9943500000008</v>
-      </c>
-      <c r="C6" s="1">
+        <v>8859.9920500000007</v>
+      </c>
+      <c r="C6" s="2">
         <v>5661.6570152542299</v>
       </c>
       <c r="D6" s="2">
         <v>8074.27765428571</v>
       </c>
-      <c r="E6" s="1">
-        <v>3829.62590134831</v>
+      <c r="E6" s="2">
+        <v>3941.98</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -586,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="J6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -599,7 +600,7 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>9899.9951899999996</v>
       </c>
       <c r="C7" s="2">
@@ -631,13 +632,13 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>9419.9965900000007</v>
       </c>
       <c r="C8" s="2">
         <v>8074.5455009999996</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>9879.9950700000009</v>
       </c>
       <c r="E8" s="2">
